--- a/artfynd/A 6870-2020.xlsx
+++ b/artfynd/A 6870-2020.xlsx
@@ -814,10 +814,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>17226483</v>
+        <v>17226466</v>
       </c>
       <c r="B3" t="n">
-        <v>89338</v>
+        <v>89406</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -830,21 +830,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>112</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -854,10 +854,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>508180.8364588228</v>
+        <v>507506.9658530909</v>
       </c>
       <c r="R3" t="n">
-        <v>7176550.281019027</v>
+        <v>7176881.629305643</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -948,10 +948,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17226480</v>
+        <v>17226536</v>
       </c>
       <c r="B4" t="n">
-        <v>89673</v>
+        <v>89406</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -964,34 +964,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>508320.5581460263</v>
+        <v>507072.0862358252</v>
       </c>
       <c r="R4" t="n">
-        <v>7176341.976285277</v>
+        <v>7176486.330798222</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1082,10 +1082,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>17226466</v>
+        <v>17226535</v>
       </c>
       <c r="B5" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1098,34 +1098,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>507506.9658530909</v>
+        <v>507160.9037844747</v>
       </c>
       <c r="R5" t="n">
-        <v>7176881.629305643</v>
+        <v>7176587.031349975</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1216,7 +1216,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17226473</v>
+        <v>17226557</v>
       </c>
       <c r="B6" t="n">
         <v>89388</v>
@@ -1252,14 +1252,14 @@
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>508069.1476861982</v>
+        <v>507140.2591031509</v>
       </c>
       <c r="R6" t="n">
-        <v>7176688.954275231</v>
+        <v>7176626.75043451</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1296,7 +1296,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1350,10 +1350,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17226536</v>
+        <v>17226509</v>
       </c>
       <c r="B7" t="n">
-        <v>89406</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1366,21 +1366,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>507072.0862358252</v>
+        <v>507022.4415240228</v>
       </c>
       <c r="R7" t="n">
-        <v>7176486.330798222</v>
+        <v>7176845.402409323</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-09-07</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-09-07</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1484,10 +1484,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17226470</v>
+        <v>17226508</v>
       </c>
       <c r="B8" t="n">
-        <v>89406</v>
+        <v>89392</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1500,34 +1500,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>508194.1390428605</v>
+        <v>507363.6795142004</v>
       </c>
       <c r="R8" t="n">
-        <v>7176381.401937452</v>
+        <v>7176829.539611454</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-07</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-07</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1618,10 +1618,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>17226535</v>
+        <v>17226555</v>
       </c>
       <c r="B9" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1634,21 +1634,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1658,10 +1658,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>507160.9037844747</v>
+        <v>506989.4206667204</v>
       </c>
       <c r="R9" t="n">
-        <v>7176587.031349975</v>
+        <v>7176684.979530635</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1752,7 +1752,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17226557</v>
+        <v>17226556</v>
       </c>
       <c r="B10" t="n">
         <v>89388</v>
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>507140.2591031509</v>
+        <v>507188.8504828164</v>
       </c>
       <c r="R10" t="n">
-        <v>7176626.75043451</v>
+        <v>7176717.517615541</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>17226509</v>
+        <v>17226567</v>
       </c>
       <c r="B11" t="n">
         <v>89392</v>
@@ -1926,10 +1926,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>507022.4415240228</v>
+        <v>507188.8504828164</v>
       </c>
       <c r="R11" t="n">
-        <v>7176845.402409323</v>
+        <v>7176717.517615541</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2013-09-07</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2013-09-07</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="AB11" t="inlineStr">
@@ -2020,10 +2020,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>17226508</v>
+        <v>17226498</v>
       </c>
       <c r="B12" t="n">
-        <v>89392</v>
+        <v>89388</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2036,21 +2036,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>507363.6795142004</v>
+        <v>507385.7757073321</v>
       </c>
       <c r="R12" t="n">
-        <v>7176829.539611454</v>
+        <v>7176897.150656514</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17226555</v>
+        <v>17226472</v>
       </c>
       <c r="B13" t="n">
-        <v>89406</v>
+        <v>89388</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2170,34 +2170,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1204</v>
+        <v>1108</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>506989.4206667204</v>
+        <v>507444.589128141</v>
       </c>
       <c r="R13" t="n">
-        <v>7176684.979530635</v>
+        <v>7176830.593153588</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2224,7 +2224,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2288,7 +2288,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17226482</v>
+        <v>17226505</v>
       </c>
       <c r="B14" t="n">
         <v>89832</v>
@@ -2324,14 +2324,14 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>508087.9187370198</v>
+        <v>507022.4415240228</v>
       </c>
       <c r="R14" t="n">
-        <v>7176713.805283863</v>
+        <v>7176845.402409323</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-07</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-07</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2422,10 +2422,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17226556</v>
+        <v>17226479</v>
       </c>
       <c r="B15" t="n">
-        <v>89388</v>
+        <v>89673</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2438,34 +2438,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>507188.8504828164</v>
+        <v>507540.2816142673</v>
       </c>
       <c r="R15" t="n">
-        <v>7176717.517615541</v>
+        <v>7176912.069913729</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2556,10 +2556,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17226567</v>
+        <v>17226467</v>
       </c>
       <c r="B16" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2572,34 +2572,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>507188.8504828164</v>
+        <v>507493.143675243</v>
       </c>
       <c r="R16" t="n">
-        <v>7176717.517615541</v>
+        <v>7176931.193151754</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="AB16" t="inlineStr">
@@ -2664,11 +2664,11 @@
         </is>
       </c>
       <c r="AN16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>1 substratenheter # Picea abies</t>
+          <t>2 substratenheter # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2690,10 +2690,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17226464</v>
+        <v>17226537</v>
       </c>
       <c r="B17" t="n">
-        <v>89410</v>
+        <v>89406</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2706,34 +2706,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>1204</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>508069.111708653</v>
+        <v>507012.6514080307</v>
       </c>
       <c r="R17" t="n">
-        <v>7176381.920618228</v>
+        <v>7176452.409294701</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2013-08-29</t>
+          <t>2013-09-09</t>
         </is>
       </c>
       <c r="AB17" t="inlineStr">
@@ -2824,10 +2824,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>17226469</v>
+        <v>17226462</v>
       </c>
       <c r="B18" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2840,21 +2840,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2864,10 +2864,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>508227.7313186439</v>
+        <v>507431.2484513553</v>
       </c>
       <c r="R18" t="n">
-        <v>7176467.02109592</v>
+        <v>7176858.780518844</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2958,10 +2958,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17226498</v>
+        <v>17226483</v>
       </c>
       <c r="B19" t="n">
-        <v>89388</v>
+        <v>89338</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2974,34 +2974,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>112</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>507385.7757073321</v>
+        <v>508180.8364588228</v>
       </c>
       <c r="R19" t="n">
-        <v>7176897.150656514</v>
+        <v>7176550.281019027</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2013-09-07</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2013-09-07</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
@@ -3092,10 +3092,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>17226468</v>
+        <v>17226480</v>
       </c>
       <c r="B20" t="n">
-        <v>89406</v>
+        <v>89673</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -3108,21 +3108,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1204</v>
+        <v>658</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -3132,10 +3132,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>508084.132038302</v>
+        <v>508320.5581460263</v>
       </c>
       <c r="R20" t="n">
-        <v>7176688.994349604</v>
+        <v>7176341.976285277</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>17226472</v>
+        <v>17226473</v>
       </c>
       <c r="B21" t="n">
         <v>89388</v>
@@ -3266,10 +3266,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>507444.589128141</v>
+        <v>508069.1476861982</v>
       </c>
       <c r="R21" t="n">
-        <v>7176830.593153588</v>
+        <v>7176688.954275231</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3360,10 +3360,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>17226485</v>
+        <v>17226470</v>
       </c>
       <c r="B22" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3376,21 +3376,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3400,10 +3400,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>508087.9187370198</v>
+        <v>508194.1390428605</v>
       </c>
       <c r="R22" t="n">
-        <v>7176713.805283863</v>
+        <v>7176381.401937452</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>17226505</v>
+        <v>17226482</v>
       </c>
       <c r="B23" t="n">
         <v>89832</v>
@@ -3530,14 +3530,14 @@
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>507022.4415240228</v>
+        <v>508087.9187370198</v>
       </c>
       <c r="R23" t="n">
-        <v>7176845.402409323</v>
+        <v>7176713.805283863</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2013-09-07</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2013-09-07</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3628,7 +3628,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>17226463</v>
+        <v>17226464</v>
       </c>
       <c r="B24" t="n">
         <v>89410</v>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>507998.6022986067</v>
+        <v>508069.111708653</v>
       </c>
       <c r="R24" t="n">
-        <v>7176652.847856672</v>
+        <v>7176381.920618228</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>17226479</v>
+        <v>17226469</v>
       </c>
       <c r="B25" t="n">
-        <v>89673</v>
+        <v>89406</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3778,21 +3778,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>658</v>
+        <v>1204</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>507540.2816142673</v>
+        <v>508227.7313186439</v>
       </c>
       <c r="R25" t="n">
-        <v>7176912.069913729</v>
+        <v>7176467.02109592</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3896,10 +3896,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>17226484</v>
+        <v>17226468</v>
       </c>
       <c r="B26" t="n">
-        <v>89392</v>
+        <v>89406</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3912,21 +3912,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3936,10 +3936,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>507998.6022986067</v>
+        <v>508084.132038302</v>
       </c>
       <c r="R26" t="n">
-        <v>7176652.847856672</v>
+        <v>7176688.994349604</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -4030,10 +4030,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>17226474</v>
+        <v>17226485</v>
       </c>
       <c r="B27" t="n">
-        <v>89388</v>
+        <v>89392</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -4046,21 +4046,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -4070,10 +4070,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>508026.3738902526</v>
+        <v>508087.9187370198</v>
       </c>
       <c r="R27" t="n">
-        <v>7176674.301798667</v>
+        <v>7176713.805283863</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>17226467</v>
+        <v>17226463</v>
       </c>
       <c r="B28" t="n">
-        <v>89406</v>
+        <v>89410</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -4180,21 +4180,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1204</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -4204,10 +4204,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>507493.143675243</v>
+        <v>507998.6022986067</v>
       </c>
       <c r="R28" t="n">
-        <v>7176931.193151754</v>
+        <v>7176652.847856672</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4272,11 +4272,11 @@
         </is>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>2 substratenheter # Picea abies</t>
+          <t>1 substratenheter # Picea abies</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr"/>
@@ -4298,10 +4298,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>17226537</v>
+        <v>17226484</v>
       </c>
       <c r="B29" t="n">
-        <v>89406</v>
+        <v>89392</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -4314,34 +4314,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Häbberskullarna-Kvarnbäcken, Jmt</t>
+          <t>Häbberskullarna-Kvarnbäcken, sydväst om Hemtjärnen, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>507012.6514080307</v>
+        <v>507998.6022986067</v>
       </c>
       <c r="R29" t="n">
-        <v>7176452.409294701</v>
+        <v>7176652.847856672</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2013-09-09</t>
+          <t>2013-08-29</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -4432,10 +4432,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>17226486</v>
+        <v>17226474</v>
       </c>
       <c r="B30" t="n">
-        <v>89392</v>
+        <v>89388</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4448,21 +4448,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4472,10 +4472,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>508300.1162818234</v>
+        <v>508026.3738902526</v>
       </c>
       <c r="R30" t="n">
-        <v>7176301.720592367</v>
+        <v>7176674.301798667</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4566,10 +4566,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>17226462</v>
+        <v>17226486</v>
       </c>
       <c r="B31" t="n">
-        <v>89410</v>
+        <v>89392</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4582,21 +4582,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4606,10 +4606,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>507431.2484513553</v>
+        <v>508300.1162818234</v>
       </c>
       <c r="R31" t="n">
-        <v>7176858.780518844</v>
+        <v>7176301.720592367</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
